--- a/exposan/pm2_ecorecover/data/dynamic_simul_result_validation.xlsx
+++ b/exposan/pm2_ecorecover/data/dynamic_simul_result_validation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Downloads\EXPOsan\exposan\pm2_ecorecover\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C75290B-FB08-4B6D-B2E1-F8EA4E1DA218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FEDC17-DB61-45C1-B5B3-650C2D4BF1A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{DEEFF93F-8712-407E-800A-077FF6958EEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>t_stamp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,14 @@
   </si>
   <si>
     <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yield_1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_stamp_yield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DDD832-617E-423B-B3BC-9FD3F4E9EB72}">
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C202"/>
+      <selection activeCell="E8" sqref="E8:E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +427,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -430,8 +444,14 @@
       <c r="C2" s="1">
         <v>0.47520980408053809</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E2">
+        <v>125.46408040695123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -441,8 +461,14 @@
       <c r="C3" s="1">
         <v>1.359144491618129E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1.2</v>
+      </c>
+      <c r="E3">
+        <v>125.2592838688599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -452,8 +478,14 @@
       <c r="C4" s="1">
         <v>9.160584553864504E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1.3</v>
+      </c>
+      <c r="E4">
+        <v>129.98039785761986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.3</v>
       </c>
@@ -463,8 +495,14 @@
       <c r="C5" s="1">
         <v>8.957608015695704E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1.4</v>
+      </c>
+      <c r="E5">
+        <v>139.16383188410893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -474,8 +512,14 @@
       <c r="C6" s="1">
         <v>8.6969474017150657E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <v>150.90730486886002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -485,8 +529,14 @@
       <c r="C7" s="1">
         <v>8.3760474057200801E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1.6</v>
+      </c>
+      <c r="E7">
+        <v>160.75420312858139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.60000000000000009</v>
       </c>
@@ -496,8 +546,14 @@
       <c r="C8" s="1">
         <v>8.0404481997988671E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>1.7</v>
+      </c>
+      <c r="E8">
+        <v>171.8547594986303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.70000000000000007</v>
       </c>
@@ -507,8 +563,14 @@
       <c r="C9" s="1">
         <v>7.6861545423046384E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1.8</v>
+      </c>
+      <c r="E9">
+        <v>174.13440325483668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.8</v>
       </c>
@@ -518,8 +580,14 @@
       <c r="C10" s="1">
         <v>7.4003776034766563E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1.9</v>
+      </c>
+      <c r="E10">
+        <v>175.55146194766019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.9</v>
       </c>
@@ -529,8 +597,14 @@
       <c r="C11" s="1">
         <v>7.2576230245377854E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>178.90097306978313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -540,8 +614,14 @@
       <c r="C12" s="1">
         <v>7.1083425887377609E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>2.1</v>
+      </c>
+      <c r="E12">
+        <v>181.9886509794332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
@@ -551,8 +631,14 @@
       <c r="C13" s="1">
         <v>6.9197992657148042E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E13">
+        <v>187.22419336852269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.2</v>
       </c>
@@ -562,8 +648,14 @@
       <c r="C14" s="1">
         <v>6.7639869356062041E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E14">
+        <v>190.41382604077617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.3</v>
       </c>
@@ -573,8 +665,14 @@
       <c r="C15" s="1">
         <v>6.5966998337334366E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>2.4</v>
+      </c>
+      <c r="E15">
+        <v>198.06027857173876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.4</v>
       </c>
@@ -584,8 +682,14 @@
       <c r="C16" s="1">
         <v>6.3783713654517538E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>2.5</v>
+      </c>
+      <c r="E16">
+        <v>206.3450148162631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.5</v>
       </c>
@@ -595,8 +699,14 @@
       <c r="C17" s="1">
         <v>6.2244202777314303E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>2.6</v>
+      </c>
+      <c r="E17">
+        <v>216.82159529921111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.6</v>
       </c>
@@ -606,8 +716,14 @@
       <c r="C18" s="1">
         <v>6.0826027282825726E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>2.7</v>
+      </c>
+      <c r="E18">
+        <v>235.14430056278255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.7</v>
       </c>
@@ -617,8 +733,14 @@
       <c r="C19" s="1">
         <v>5.8608960104702566E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>2.8</v>
+      </c>
+      <c r="E19">
+        <v>235.04912191066293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.8</v>
       </c>
@@ -628,8 +750,14 @@
       <c r="C20" s="1">
         <v>5.8894837556563249E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>2.9</v>
+      </c>
+      <c r="E20">
+        <v>231.71400125563329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.9</v>
       </c>
@@ -639,8 +767,14 @@
       <c r="C21" s="1">
         <v>5.771686068499802E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>232.22593651413555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -650,8 +784,14 @@
       <c r="C22" s="1">
         <v>5.8297879216170764E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>3.1</v>
+      </c>
+      <c r="E22">
+        <v>232.1792913962704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.1</v>
       </c>
@@ -661,8 +801,14 @@
       <c r="C23" s="1">
         <v>5.7358745709813874E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>3.2</v>
+      </c>
+      <c r="E23">
+        <v>227.50672815066346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
@@ -672,8 +818,14 @@
       <c r="C24" s="1">
         <v>5.7482868515330039E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>3.3</v>
+      </c>
+      <c r="E24">
+        <v>219.48171919317591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.2999999999999998</v>
       </c>
@@ -683,8 +835,14 @@
       <c r="C25" s="1">
         <v>5.6773146221173777E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>3.4</v>
+      </c>
+      <c r="E25">
+        <v>216.20062023229551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2.4</v>
       </c>
@@ -694,8 +852,14 @@
       <c r="C26" s="1">
         <v>5.7325396730076314E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>3.5</v>
+      </c>
+      <c r="E26">
+        <v>210.10358859433211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2.5</v>
       </c>
@@ -705,8 +869,14 @@
       <c r="C27" s="1">
         <v>5.5058131090764371E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>3.6</v>
+      </c>
+      <c r="E27">
+        <v>209.27965239101079</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.6</v>
       </c>
@@ -716,8 +886,14 @@
       <c r="C28" s="1">
         <v>5.4716151071490847E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>3.7</v>
+      </c>
+      <c r="E28">
+        <v>212.74935391096957</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2.7</v>
       </c>
@@ -727,8 +903,14 @@
       <c r="C29" s="1">
         <v>5.3922629037571161E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>3.8</v>
+      </c>
+      <c r="E29">
+        <v>189.16267899137418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2.8</v>
       </c>
@@ -738,8 +920,14 @@
       <c r="C30" s="1">
         <v>5.4435262733897299E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>3.9</v>
+      </c>
+      <c r="E30">
+        <v>169.52474755564606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.9</v>
       </c>
@@ -749,8 +937,14 @@
       <c r="C31" s="1">
         <v>5.552689434761655E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>154.55016587234073</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -760,8 +954,14 @@
       <c r="C32" s="1">
         <v>5.6702045553572644E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="E32">
+        <v>145.10262571977844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3.1</v>
       </c>
@@ -771,8 +971,14 @@
       <c r="C33" s="1">
         <v>5.7834355515076364E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>4.2</v>
+      </c>
+      <c r="E33">
+        <v>136.59047022629522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3.2</v>
       </c>
@@ -782,8 +988,14 @@
       <c r="C34" s="1">
         <v>5.8919997407576499E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>4.3</v>
+      </c>
+      <c r="E34">
+        <v>133.24825010296743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3.3</v>
       </c>
@@ -793,8 +1005,14 @@
       <c r="C35" s="1">
         <v>5.9920239296745812E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E35">
+        <v>136.99146366154042</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3.4</v>
       </c>
@@ -804,8 +1022,14 @@
       <c r="C36" s="1">
         <v>6.0594481997230014E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>4.5</v>
+      </c>
+      <c r="E36">
+        <v>143.79842890856128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3.5</v>
       </c>
@@ -815,8 +1039,14 @@
       <c r="C37" s="1">
         <v>6.2392394135533831E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="E37">
+        <v>154.33629108491994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3.6</v>
       </c>
@@ -826,8 +1056,14 @@
       <c r="C38" s="1">
         <v>6.3395096433929276E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>4.7</v>
+      </c>
+      <c r="E38">
+        <v>156.70543035918655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3.7</v>
       </c>
@@ -837,8 +1073,14 @@
       <c r="C39" s="1">
         <v>6.281231524417008E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="E39">
+        <v>130.9129015802956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3.8</v>
       </c>
@@ -848,8 +1090,14 @@
       <c r="C40" s="1">
         <v>6.3443233308650626E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E40">
+        <v>118.67004079952625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3.9</v>
       </c>
@@ -859,8 +1107,14 @@
       <c r="C41" s="1">
         <v>6.4646879764931166E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>119.06473108195752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -870,8 +1124,14 @@
       <c r="C42" s="1">
         <v>6.6224122260395372E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>5.1000000000000014</v>
+      </c>
+      <c r="E42">
+        <v>125.40882090142595</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4.1000000000000014</v>
       </c>
@@ -881,8 +1141,14 @@
       <c r="C43" s="1">
         <v>6.7553342806547676E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>5.2</v>
+      </c>
+      <c r="E43">
+        <v>127.11242982337744</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4.2</v>
       </c>
@@ -892,8 +1158,14 @@
       <c r="C44" s="1">
         <v>6.6177659971919456E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="E44">
+        <v>128.36115648288074</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4.3</v>
       </c>
@@ -903,8 +1175,14 @@
       <c r="C45" s="1">
         <v>6.6711412303564104E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>5.4</v>
+      </c>
+      <c r="E45">
+        <v>134.01227451673563</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4.4000000000000004</v>
       </c>
@@ -914,8 +1192,14 @@
       <c r="C46" s="1">
         <v>6.7403424854064493E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>5.5</v>
+      </c>
+      <c r="E46">
+        <v>138.80586526408669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4.5</v>
       </c>
@@ -925,8 +1209,14 @@
       <c r="C47" s="1">
         <v>6.758500597301511E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="E47">
+        <v>146.47128372184946</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4.6000000000000014</v>
       </c>
@@ -936,8 +1226,14 @@
       <c r="C48" s="1">
         <v>6.7512120383930148E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>5.7</v>
+      </c>
+      <c r="E48">
+        <v>153.38553626486484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4.7</v>
       </c>
@@ -947,8 +1243,14 @@
       <c r="C49" s="1">
         <v>6.7392858779221233E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="E49">
+        <v>136.43572899669502</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4.8000000000000007</v>
       </c>
@@ -958,8 +1260,14 @@
       <c r="C50" s="1">
         <v>6.5391646928768896E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>5.9</v>
+      </c>
+      <c r="E50">
+        <v>133.74572836448769</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4.9000000000000004</v>
       </c>
@@ -969,8 +1277,14 @@
       <c r="C51" s="1">
         <v>6.6471515803144584E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>135.57812180944438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5</v>
       </c>
@@ -980,8 +1294,14 @@
       <c r="C52" s="1">
         <v>6.7690991449215693E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>6.1000000000000014</v>
+      </c>
+      <c r="E52">
+        <v>136.49764497502267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5.1000000000000014</v>
       </c>
@@ -991,8 +1311,14 @@
       <c r="C53" s="1">
         <v>6.8774285188460916E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>6.2</v>
+      </c>
+      <c r="E53">
+        <v>137.43262893095095</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5.2</v>
       </c>
@@ -1002,8 +1328,14 @@
       <c r="C54" s="1">
         <v>6.9798604081972339E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="E54">
+        <v>138.31057467697181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5.3000000000000007</v>
       </c>
@@ -1013,8 +1345,14 @@
       <c r="C55" s="1">
         <v>6.7674734725172783E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>6.4</v>
+      </c>
+      <c r="E55">
+        <v>131.18904779224249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5.4</v>
       </c>
@@ -1024,8 +1362,14 @@
       <c r="C56" s="1">
         <v>6.8277809313653289E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>6.5</v>
+      </c>
+      <c r="E56">
+        <v>120.51897582838784</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5.5</v>
       </c>
@@ -1035,8 +1379,14 @@
       <c r="C57" s="1">
         <v>6.8708276267085951E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="E57">
+        <v>111.75319405441336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5.6000000000000014</v>
       </c>
@@ -1046,8 +1396,14 @@
       <c r="C58" s="1">
         <v>6.8782023865813146E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>6.7</v>
+      </c>
+      <c r="E58">
+        <v>85.512873872330715</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5.7</v>
       </c>
@@ -1057,8 +1413,14 @@
       <c r="C59" s="1">
         <v>6.873661504264667E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="E59">
+        <v>54.020180002322967</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5.8000000000000007</v>
       </c>
@@ -1068,8 +1430,14 @@
       <c r="C60" s="1">
         <v>6.6467199783361158E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>6.9</v>
+      </c>
+      <c r="E60">
+        <v>54.170386444131758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5.9</v>
       </c>
@@ -1079,8 +1447,14 @@
       <c r="C61" s="1">
         <v>6.7385629539038986E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>57.159069235450175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6</v>
       </c>
@@ -1090,8 +1464,14 @@
       <c r="C62" s="1">
         <v>6.847438692920131E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="E62">
+        <v>60.026973882365773</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6.1000000000000014</v>
       </c>
@@ -1101,8 +1481,14 @@
       <c r="C63" s="1">
         <v>6.955987009147048E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>7.2</v>
+      </c>
+      <c r="E63">
+        <v>62.497476087297059</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6.2</v>
       </c>
@@ -1112,8 +1498,14 @@
       <c r="C64" s="1">
         <v>7.05667429644272E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="E64">
+        <v>64.854398133508326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6.3000000000000007</v>
       </c>
@@ -1123,8 +1515,14 @@
       <c r="C65" s="1">
         <v>6.818293536028479E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>7.4</v>
+      </c>
+      <c r="E65">
+        <v>57.19287983015375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6.4</v>
       </c>
@@ -1134,8 +1532,14 @@
       <c r="C66" s="1">
         <v>6.9194104717846963E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>7.5</v>
+      </c>
+      <c r="E66">
+        <v>57.19287983015375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6.5</v>
       </c>
@@ -1145,8 +1549,14 @@
       <c r="C67" s="1">
         <v>7.0402850812440734E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="E67">
+        <v>55.848656562958723</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6.6000000000000014</v>
       </c>
@@ -1156,8 +1566,14 @@
       <c r="C68" s="1">
         <v>7.1179063182428897E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>7.7</v>
+      </c>
+      <c r="E68">
+        <v>49.161285146610993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6.7</v>
       </c>
@@ -1167,8 +1583,14 @@
       <c r="C69" s="1">
         <v>7.2480995642089903E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="E69">
+        <v>58.999167238716488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6.8000000000000007</v>
       </c>
@@ -1178,8 +1600,14 @@
       <c r="C70" s="1">
         <v>7.004641147893835E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>7.9</v>
+      </c>
+      <c r="E70">
+        <v>70.907293008196348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6.9</v>
       </c>
@@ -1189,8 +1617,14 @@
       <c r="C71" s="1">
         <v>7.040165449180312E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>71.282534816513632</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7</v>
       </c>
@@ -1200,8 +1634,14 @@
       <c r="C72" s="1">
         <v>7.1049559595268638E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>8.1</v>
+      </c>
+      <c r="E72">
+        <v>71.689464696967278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7.1000000000000014</v>
       </c>
@@ -1211,8 +1651,14 @@
       <c r="C73" s="1">
         <v>7.1808807076713908E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="E73">
+        <v>71.45785679985201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7.2</v>
       </c>
@@ -1222,8 +1668,14 @@
       <c r="C74" s="1">
         <v>7.2626113608568292E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E74">
+        <v>71.399107175009945</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7.3000000000000007</v>
       </c>
@@ -1233,8 +1685,14 @@
       <c r="C75" s="1">
         <v>7.2836678211915286E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>8.4</v>
+      </c>
+      <c r="E75">
+        <v>61.876355566725813</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7.4</v>
       </c>
@@ -1244,8 +1702,14 @@
       <c r="C76" s="1">
         <v>7.0538480844661534E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>8.5</v>
+      </c>
+      <c r="E76">
+        <v>69.89905432695879</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7.5</v>
       </c>
@@ -1255,8 +1719,14 @@
       <c r="C77" s="1">
         <v>7.1788819390059284E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>8.6</v>
+      </c>
+      <c r="E77">
+        <v>83.863955111666868</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7.6000000000000014</v>
       </c>
@@ -1266,8 +1736,14 @@
       <c r="C78" s="1">
         <v>7.2970982114000183E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>8.7000000000000011</v>
+      </c>
+      <c r="E78">
+        <v>90.151461330318597</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>7.7</v>
       </c>
@@ -1277,8 +1753,14 @@
       <c r="C79" s="1">
         <v>7.4160528019556714E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E79">
+        <v>96.242213450305272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7.8000000000000007</v>
       </c>
@@ -1288,8 +1770,14 @@
       <c r="C80" s="1">
         <v>7.4880213746730262E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>8.9</v>
+      </c>
+      <c r="E80">
+        <v>93.995416163030896</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>7.9</v>
       </c>
@@ -1299,8 +1787,14 @@
       <c r="C81" s="1">
         <v>7.5324259300587754E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>9</v>
+      </c>
+      <c r="E81">
+        <v>88.914782378889186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8</v>
       </c>
@@ -1310,8 +1804,14 @@
       <c r="C82" s="1">
         <v>7.5948686034425046E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>9.1</v>
+      </c>
+      <c r="E82">
+        <v>84.690479280021762</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8.1</v>
       </c>
@@ -1321,8 +1821,14 @@
       <c r="C83" s="1">
         <v>7.6688190060172894E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="E83">
+        <v>80.48734306984538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8.2000000000000011</v>
       </c>
@@ -1332,8 +1838,14 @@
       <c r="C84" s="1">
         <v>7.7496730990876863E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E84">
+        <v>77.192450221364879</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8.3000000000000007</v>
       </c>
@@ -1343,8 +1855,14 @@
       <c r="C85" s="1">
         <v>8.2644569672034665E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>9.4</v>
+      </c>
+      <c r="E85">
+        <v>71.122734465403298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8.4</v>
       </c>
@@ -1354,8 +1872,14 @@
       <c r="C86" s="1">
         <v>8.4108114800716047E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>9.5</v>
+      </c>
+      <c r="E86">
+        <v>72.364317439979871</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8.5</v>
       </c>
@@ -1365,8 +1889,14 @@
       <c r="C87" s="1">
         <v>8.5170666243855348E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="E87">
+        <v>78.244615291034719</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>8.6</v>
       </c>
@@ -1376,8 +1906,14 @@
       <c r="C88" s="1">
         <v>9.0124840833041443E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>9.7000000000000011</v>
+      </c>
+      <c r="E88">
+        <v>84.469275390846391</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8.7000000000000011</v>
       </c>
@@ -1387,8 +1923,14 @@
       <c r="C89" s="1">
         <v>9.1362480803927702E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E89">
+        <v>86.498974142003817</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8.8000000000000007</v>
       </c>
@@ -1398,8 +1940,14 @@
       <c r="C90" s="1">
         <v>9.6797810613787963E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>9.9</v>
+      </c>
+      <c r="E90">
+        <v>85.857468517592665</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>8.9</v>
       </c>
@@ -1409,8 +1957,14 @@
       <c r="C91" s="1">
         <v>1.014489047515332E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>83.381144564589121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>9</v>
       </c>
@@ -1420,8 +1974,14 @@
       <c r="C92" s="1">
         <v>1.0358468605866269E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>10.1</v>
+      </c>
+      <c r="E92">
+        <v>81.614672112538543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>9.1</v>
       </c>
@@ -1431,8 +1991,14 @@
       <c r="C93" s="1">
         <v>1.092389446917107E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E93">
+        <v>79.973791691818192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9.2000000000000011</v>
       </c>
@@ -1442,8 +2008,14 @@
       <c r="C94" s="1">
         <v>1.144565340655751E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>10.3</v>
+      </c>
+      <c r="E94">
+        <v>78.885902670952433</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>9.3000000000000007</v>
       </c>
@@ -1453,8 +2025,14 @@
       <c r="C95" s="1">
         <v>1.165738887824991E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>10.4</v>
+      </c>
+      <c r="E95">
+        <v>73.929245758657373</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9.4</v>
       </c>
@@ -1464,8 +2042,14 @@
       <c r="C96" s="1">
         <v>1.2223181082340859E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>10.5</v>
+      </c>
+      <c r="E96">
+        <v>76.289375905623217</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9.5</v>
       </c>
@@ -1475,8 +2059,14 @@
       <c r="C97" s="1">
         <v>1.270223356499108E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>10.6</v>
+      </c>
+      <c r="E97">
+        <v>88.728029650145402</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>9.6000000000000014</v>
       </c>
@@ -1486,8 +2076,14 @@
       <c r="C98" s="1">
         <v>1.2814962740387631E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>10.7</v>
+      </c>
+      <c r="E98">
+        <v>96.333295430436095</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9.7000000000000011</v>
       </c>
@@ -1497,8 +2093,14 @@
       <c r="C99" s="1">
         <v>1.2660058753037339E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>10.8</v>
+      </c>
+      <c r="E99">
+        <v>84.797679827364021</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>9.8000000000000007</v>
       </c>
@@ -1508,8 +2110,14 @@
       <c r="C100" s="1">
         <v>1.3144794063276051E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>10.9</v>
+      </c>
+      <c r="E100">
+        <v>76.480474857554867</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>9.9</v>
       </c>
@@ -1519,8 +2127,14 @@
       <c r="C101" s="1">
         <v>1.326246720867953E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>11</v>
+      </c>
+      <c r="E101">
+        <v>71.031228361979345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>10</v>
       </c>
@@ -1530,8 +2144,14 @@
       <c r="C102" s="1">
         <v>1.3375458732089909E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <v>11.1</v>
+      </c>
+      <c r="E102">
+        <v>69.876382330575282</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>10.1</v>
       </c>
@@ -1541,8 +2161,14 @@
       <c r="C103" s="1">
         <v>1.34820331115239E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103">
+        <v>11.2</v>
+      </c>
+      <c r="E103">
+        <v>69.413463259087649</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>10.199999999999999</v>
       </c>
@@ -1552,8 +2178,14 @@
       <c r="C104" s="1">
         <v>1.358124028671818E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104">
+        <v>11.3</v>
+      </c>
+      <c r="E104">
+        <v>69.476034398335727</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>10.3</v>
       </c>
@@ -1563,8 +2195,14 @@
       <c r="C105" s="1">
         <v>1.3671042442472419E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105">
+        <v>11.4</v>
+      </c>
+      <c r="E105">
+        <v>65.982860281227204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>10.4</v>
       </c>
@@ -1574,8 +2212,14 @@
       <c r="C106" s="1">
         <v>1.3781695001578021E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106">
+        <v>11.5</v>
+      </c>
+      <c r="E106">
+        <v>69.695733056770379</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>10.5</v>
       </c>
@@ -1585,8 +2229,14 @@
       <c r="C107" s="1">
         <v>1.3859611467389499E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107">
+        <v>11.6</v>
+      </c>
+      <c r="E107">
+        <v>76.400612479243932</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>10.6</v>
       </c>
@@ -1596,8 +2246,14 @@
       <c r="C108" s="1">
         <v>1.3286292758046591E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108">
+        <v>11.7</v>
+      </c>
+      <c r="E108">
+        <v>68.687758249137389</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>10.7</v>
       </c>
@@ -1607,8 +2263,14 @@
       <c r="C109" s="1">
         <v>1.30314762646311E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109">
+        <v>11.8</v>
+      </c>
+      <c r="E109">
+        <v>52.462772285516593</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>10.8</v>
       </c>
@@ -1618,8 +2280,14 @@
       <c r="C110" s="1">
         <v>1.302661397504936E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110">
+        <v>11.9</v>
+      </c>
+      <c r="E110">
+        <v>51.126529172667695</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>10.9</v>
       </c>
@@ -1629,8 +2297,14 @@
       <c r="C111" s="1">
         <v>1.3163884938983621E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111">
+        <v>12</v>
+      </c>
+      <c r="E111">
+        <v>58.064774577786281</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>11</v>
       </c>
@@ -1640,8 +2314,14 @@
       <c r="C112" s="1">
         <v>1.398358399721561E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112">
+        <v>12.1</v>
+      </c>
+      <c r="E112">
+        <v>65.090343189553479</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>11.1</v>
       </c>
@@ -1651,8 +2331,14 @@
       <c r="C113" s="1">
         <v>1.4192884067313481E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113">
+        <v>12.2</v>
+      </c>
+      <c r="E113">
+        <v>68.301205293623426</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>11.2</v>
       </c>
@@ -1662,8 +2348,14 @@
       <c r="C114" s="1">
         <v>1.454472716376643E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114">
+        <v>12.3</v>
+      </c>
+      <c r="E114">
+        <v>71.109287157711364</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>11.3</v>
       </c>
@@ -1673,8 +2365,14 @@
       <c r="C115" s="1">
         <v>1.480596324158099E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115">
+        <v>12.4</v>
+      </c>
+      <c r="E115">
+        <v>66.546642484441179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>11.4</v>
       </c>
@@ -1684,8 +2382,14 @@
       <c r="C116" s="1">
         <v>1.4940998915751199E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116">
+        <v>12.5</v>
+      </c>
+      <c r="E116">
+        <v>69.721236336479009</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>11.5</v>
       </c>
@@ -1695,8 +2399,14 @@
       <c r="C117" s="1">
         <v>1.490399156484048E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117">
+        <v>12.6</v>
+      </c>
+      <c r="E117">
+        <v>73.308219327114514</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>11.6</v>
       </c>
@@ -1706,8 +2416,14 @@
       <c r="C118" s="1">
         <v>1.427219849541512E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118">
+        <v>12.7</v>
+      </c>
+      <c r="E118">
+        <v>63.651113801266312</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>11.7</v>
       </c>
@@ -1717,8 +2433,14 @@
       <c r="C119" s="1">
         <v>1.41521743477061E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119">
+        <v>12.8</v>
+      </c>
+      <c r="E119">
+        <v>64.688242658664137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>11.8</v>
       </c>
@@ -1728,8 +2450,14 @@
       <c r="C120" s="1">
         <v>1.3716471106749209E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120">
+        <v>12.9</v>
+      </c>
+      <c r="E120">
+        <v>70.359459987590199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>11.9</v>
       </c>
@@ -1739,8 +2467,14 @@
       <c r="C121" s="1">
         <v>1.367395838510584E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121">
+        <v>13</v>
+      </c>
+      <c r="E121">
+        <v>74.082469637746016</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>12</v>
       </c>
@@ -1750,8 +2484,14 @@
       <c r="C122" s="1">
         <v>1.321741742341734E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122">
+        <v>13.1</v>
+      </c>
+      <c r="E122">
+        <v>78.641777570353383</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>12.1</v>
       </c>
@@ -1761,8 +2501,14 @@
       <c r="C123" s="1">
         <v>1.2802705222195549E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123">
+        <v>13.2</v>
+      </c>
+      <c r="E123">
+        <v>83.638766904064099</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>12.2</v>
       </c>
@@ -1772,8 +2518,14 @@
       <c r="C124" s="1">
         <v>1.2360780894741611E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124">
+        <v>13.3</v>
+      </c>
+      <c r="E124">
+        <v>91.685806980178597</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>12.3</v>
       </c>
@@ -1783,8 +2535,14 @@
       <c r="C125" s="1">
         <v>1.186135959717736E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125">
+        <v>13.4</v>
+      </c>
+      <c r="E125">
+        <v>90.822822812479799</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>12.4</v>
       </c>
@@ -1794,8 +2552,14 @@
       <c r="C126" s="1">
         <v>1.1377702990724889E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126">
+        <v>13.5</v>
+      </c>
+      <c r="E126">
+        <v>102.01524660523302</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>12.5</v>
       </c>
@@ -1805,8 +2569,14 @@
       <c r="C127" s="1">
         <v>1.1405011829465621E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127">
+        <v>13.6</v>
+      </c>
+      <c r="E127">
+        <v>144.28232542397834</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>12.6</v>
       </c>
@@ -1816,8 +2586,14 @@
       <c r="C128" s="1">
         <v>1.092765708615351E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128">
+        <v>13.7</v>
+      </c>
+      <c r="E128">
+        <v>206.22914267545787</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>12.7</v>
       </c>
@@ -1827,8 +2603,14 @@
       <c r="C129" s="1">
         <v>1.053083064925087E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129">
+        <v>13.8</v>
+      </c>
+      <c r="E129">
+        <v>233.23622869140888</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>12.8</v>
       </c>
@@ -1838,8 +2620,14 @@
       <c r="C130" s="1">
         <v>1.015967711869575E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130">
+        <v>13.9</v>
+      </c>
+      <c r="E130">
+        <v>250.60376753356257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>12.9</v>
       </c>
@@ -1849,8 +2637,14 @@
       <c r="C131" s="1">
         <v>9.7341578224981601E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131">
+        <v>14</v>
+      </c>
+      <c r="E131">
+        <v>268.61154932499852</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>13</v>
       </c>
@@ -1860,8 +2654,14 @@
       <c r="C132" s="1">
         <v>9.2172039494543348E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132">
+        <v>14.1</v>
+      </c>
+      <c r="E132">
+        <v>293.57466831785592</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>13.1</v>
       </c>
@@ -1871,8 +2671,14 @@
       <c r="C133" s="1">
         <v>8.590653089104297E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133">
+        <v>14.2</v>
+      </c>
+      <c r="E133">
+        <v>330.18179286388818</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>13.2</v>
       </c>
@@ -1882,8 +2688,14 @@
       <c r="C134" s="1">
         <v>7.9653104349876724E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134">
+        <v>14.3</v>
+      </c>
+      <c r="E134">
+        <v>398.16670323688595</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>13.3</v>
       </c>
@@ -1893,8 +2705,14 @@
       <c r="C135" s="1">
         <v>7.334658238424053E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135">
+        <v>14.4</v>
+      </c>
+      <c r="E135">
+        <v>384.15733883554907</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>13.4</v>
       </c>
@@ -1904,8 +2722,14 @@
       <c r="C136" s="1">
         <v>6.7239804878722123E-3</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136">
+        <v>14.5</v>
+      </c>
+      <c r="E136">
+        <v>377.6141406773599</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>13.5</v>
       </c>
@@ -1915,8 +2739,14 @@
       <c r="C137" s="1">
         <v>6.2154703051718564E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137">
+        <v>14.6</v>
+      </c>
+      <c r="E137">
+        <v>366.70436683471701</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>13.6</v>
       </c>
@@ -1926,8 +2756,14 @@
       <c r="C138" s="1">
         <v>5.6341095721220216E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138">
+        <v>14.7</v>
+      </c>
+      <c r="E138">
+        <v>319.62910943156317</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>13.7</v>
       </c>
@@ -1937,8 +2773,14 @@
       <c r="C139" s="1">
         <v>5.0092252291887504E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139">
+        <v>14.8</v>
+      </c>
+      <c r="E139">
+        <v>284.75860091258335</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>13.8</v>
       </c>
@@ -1948,8 +2790,14 @@
       <c r="C140" s="1">
         <v>4.4420089772794023E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140">
+        <v>14.9</v>
+      </c>
+      <c r="E140">
+        <v>344.38061027994723</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>13.9</v>
       </c>
@@ -1959,8 +2807,14 @@
       <c r="C141" s="1">
         <v>3.8875663945027411E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141">
+        <v>15</v>
+      </c>
+      <c r="E141">
+        <v>404.99442010745554</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>14</v>
       </c>
@@ -1970,8 +2824,14 @@
       <c r="C142" s="1">
         <v>3.326999457466567E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142">
+        <v>15.1</v>
+      </c>
+      <c r="E142">
+        <v>457.42949030115648</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>14.1</v>
       </c>
@@ -1981,8 +2841,14 @@
       <c r="C143" s="1">
         <v>2.7695560759164301E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143">
+        <v>15.2</v>
+      </c>
+      <c r="E143">
+        <v>472.71515339706167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14.2</v>
       </c>
@@ -1992,8 +2858,14 @@
       <c r="C144" s="1">
         <v>2.2807086612115219E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144">
+        <v>15.3</v>
+      </c>
+      <c r="E144">
+        <v>478.0462189802293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>14.3</v>
       </c>
@@ -2003,8 +2875,14 @@
       <c r="C145" s="1">
         <v>2.0600143894343201E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145">
+        <v>15.4</v>
+      </c>
+      <c r="E145">
+        <v>420.97460405665373</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14.4</v>
       </c>
@@ -2014,8 +2892,14 @@
       <c r="C146" s="1">
         <v>1.4896700123427629E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146">
+        <v>15.5</v>
+      </c>
+      <c r="E146">
+        <v>451.39848727793594</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>14.5</v>
       </c>
@@ -2025,8 +2909,14 @@
       <c r="C147" s="1">
         <v>1.4243748689591251E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147">
+        <v>15.6</v>
+      </c>
+      <c r="E147">
+        <v>568.58835242287512</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>14.6</v>
       </c>
@@ -2036,8 +2926,14 @@
       <c r="C148" s="1">
         <v>1.4432799196590559E-3</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148">
+        <v>15.7</v>
+      </c>
+      <c r="E148">
+        <v>735.35548089016072</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14.7</v>
       </c>
@@ -2047,8 +2943,14 @@
       <c r="C149" s="1">
         <v>1.474912475579622E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149">
+        <v>15.8</v>
+      </c>
+      <c r="E149">
+        <v>802.57131405020368</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>14.8</v>
       </c>
@@ -2058,8 +2960,14 @@
       <c r="C150" s="1">
         <v>1.5038634255735281E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150">
+        <v>15.9</v>
+      </c>
+      <c r="E150">
+        <v>813.61153472211299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>14.9</v>
       </c>
@@ -2069,8 +2977,14 @@
       <c r="C151" s="1">
         <v>1.52558583795651E-3</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151">
+        <v>16</v>
+      </c>
+      <c r="E151">
+        <v>768.59140478971904</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>15</v>
       </c>
@@ -2080,8 +2994,14 @@
       <c r="C152" s="1">
         <v>1.548913303612592E-3</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E152">
+        <v>728.065458478854</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>15.1</v>
       </c>
@@ -2091,8 +3011,14 @@
       <c r="C153">
         <v>1.574588066627062E-3</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153">
+        <v>16.2</v>
+      </c>
+      <c r="E153">
+        <v>691.1063363353951</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>15.2</v>
       </c>
@@ -2102,8 +3028,14 @@
       <c r="C154">
         <v>1.924838942088928E-3</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154">
+        <v>16.3</v>
+      </c>
+      <c r="E154">
+        <v>673.31453497957079</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>15.3</v>
       </c>
@@ -2113,8 +3045,14 @@
       <c r="C155">
         <v>2.3910459275178998E-3</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E155">
+        <v>619.87879151264508</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>15.4</v>
       </c>
@@ -2124,8 +3062,14 @@
       <c r="C156">
         <v>2.4811530937443459E-3</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156">
+        <v>16.5</v>
+      </c>
+      <c r="E156">
+        <v>620.45242927220988</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>15.5</v>
       </c>
@@ -2135,8 +3079,14 @@
       <c r="C157">
         <v>2.5299279620859369E-3</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E157">
+        <v>623.3076356223587</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>15.6</v>
       </c>
@@ -2146,8 +3096,14 @@
       <c r="C158">
         <v>2.561642206167572E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158">
+        <v>16.7</v>
+      </c>
+      <c r="E158">
+        <v>521.77374480986816</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>15.7</v>
       </c>
@@ -2157,8 +3113,14 @@
       <c r="C159">
         <v>2.5845915192981412E-3</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159">
+        <v>16.8</v>
+      </c>
+      <c r="E159">
+        <v>362.18660862514645</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>15.8</v>
       </c>
@@ -2168,8 +3130,14 @@
       <c r="C160">
         <v>2.6227906714389971E-3</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E160">
+        <v>315.01706355249416</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>15.9</v>
       </c>
@@ -2179,8 +3147,14 @@
       <c r="C161">
         <v>2.66767768715614E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161">
+        <v>17</v>
+      </c>
+      <c r="E161">
+        <v>287.88046642190716</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>16</v>
       </c>
@@ -2190,8 +3164,14 @@
       <c r="C162">
         <v>2.7153449115164211E-3</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E162">
+        <v>260.21673340417112</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>16.100000000000001</v>
       </c>
@@ -2201,8 +3181,14 @@
       <c r="C163">
         <v>2.7637380828601159E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163">
+        <v>17.2</v>
+      </c>
+      <c r="E163">
+        <v>232.02345938478058</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>16.2</v>
       </c>
@@ -2212,8 +3198,14 @@
       <c r="C164">
         <v>2.8123709105540972E-3</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164">
+        <v>17.3</v>
+      </c>
+      <c r="E164">
+        <v>204.83389729390856</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>16.3</v>
       </c>
@@ -2223,8 +3215,14 @@
       <c r="C165">
         <v>3.142999235111868E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E165">
+        <v>177.19690508492536</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>16.399999999999999</v>
       </c>
@@ -2234,8 +3232,14 @@
       <c r="C166">
         <v>3.7928129882219769E-3</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166">
+        <v>17.5</v>
+      </c>
+      <c r="E166">
+        <v>192.74853369562115</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>16.5</v>
       </c>
@@ -2245,8 +3249,14 @@
       <c r="C167">
         <v>4.012385505334083E-3</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E167">
+        <v>190.50048117287551</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>16.600000000000001</v>
       </c>
@@ -2256,8 +3266,14 @@
       <c r="C168">
         <v>4.8824963824971408E-3</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168">
+        <v>17.7</v>
+      </c>
+      <c r="E168">
+        <v>171.37495871874918</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>16.7</v>
       </c>
@@ -2267,8 +3283,14 @@
       <c r="C169">
         <v>5.6415549622588976E-3</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169">
+        <v>17.8</v>
+      </c>
+      <c r="E169">
+        <v>199.08600001455977</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>16.8</v>
       </c>
@@ -2278,8 +3300,14 @@
       <c r="C170">
         <v>6.1167646194271973E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E170">
+        <v>220.03099288148186</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>16.899999999999999</v>
       </c>
@@ -2289,8 +3317,14 @@
       <c r="C171">
         <v>7.0331463322255436E-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171">
+        <v>18</v>
+      </c>
+      <c r="E171">
+        <v>199.98470479409124</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>17</v>
       </c>
@@ -2300,8 +3334,14 @@
       <c r="C172">
         <v>7.3613569550877028E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E172">
+        <v>214.95084471097655</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>17.100000000000001</v>
       </c>
@@ -2311,8 +3351,14 @@
       <c r="C173">
         <v>8.1196024417344477E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173">
+        <v>18.2</v>
+      </c>
+      <c r="E173">
+        <v>232.93392922304267</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>17.2</v>
       </c>
@@ -2322,8 +3368,14 @@
       <c r="C174">
         <v>8.5884708903420023E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174">
+        <v>18.3</v>
+      </c>
+      <c r="E174">
+        <v>253.8127301657062</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>17.3</v>
       </c>
@@ -2333,8 +3385,14 @@
       <c r="C175">
         <v>8.7456431595458878E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E175">
+        <v>262.12272575928677</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>17.399999999999999</v>
       </c>
@@ -2344,8 +3402,14 @@
       <c r="C176">
         <v>8.8067703869293551E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176">
+        <v>18.5</v>
+      </c>
+      <c r="E176">
+        <v>287.4756720040665</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>17.5</v>
       </c>
@@ -2355,8 +3419,14 @@
       <c r="C177">
         <v>7.9976176168059382E-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E177">
+        <v>307.01203452689282</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>17.600000000000001</v>
       </c>
@@ -2366,8 +3436,14 @@
       <c r="C178">
         <v>7.927343883235731E-3</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178">
+        <v>18.7</v>
+      </c>
+      <c r="E178">
+        <v>298.83212896173842</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>17.7</v>
       </c>
@@ -2377,8 +3453,14 @@
       <c r="C179">
         <v>7.167557285479402E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179">
+        <v>18.8</v>
+      </c>
+      <c r="E179">
+        <v>307.22136738258399</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>17.8</v>
       </c>
@@ -2388,8 +3470,14 @@
       <c r="C180">
         <v>6.9538192195399678E-3</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E180">
+        <v>347.70212720441526</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>17.899999999999999</v>
       </c>
@@ -2399,8 +3487,14 @@
       <c r="C181">
         <v>6.0720337020762393E-3</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181">
+        <v>19</v>
+      </c>
+      <c r="E181">
+        <v>394.33142090179354</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>18</v>
       </c>
@@ -2410,8 +3504,14 @@
       <c r="C182">
         <v>5.9338524344521738E-3</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E182">
+        <v>467.53020529171386</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>18.100000000000001</v>
       </c>
@@ -2421,8 +3521,14 @@
       <c r="C183">
         <v>5.1743305978795284E-3</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183">
+        <v>19.2</v>
+      </c>
+      <c r="E183">
+        <v>591.35115324046922</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>18.2</v>
       </c>
@@ -2432,8 +3538,14 @@
       <c r="C184">
         <v>4.9003552290652688E-3</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184">
+        <v>19.3</v>
+      </c>
+      <c r="E184">
+        <v>708.23613808881214</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>18.3</v>
       </c>
@@ -2443,8 +3555,14 @@
       <c r="C185">
         <v>4.8959749330294618E-3</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E185">
+        <v>670.97745324702828</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>18.399999999999999</v>
       </c>
@@ -2454,8 +3572,14 @@
       <c r="C186">
         <v>4.9452878343289979E-3</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186">
+        <v>19.5</v>
+      </c>
+      <c r="E186">
+        <v>645.41879614575817</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>18.5</v>
       </c>
@@ -2465,8 +3589,14 @@
       <c r="C187">
         <v>4.7933938722818422E-3</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E187">
+        <v>614.20514955826854</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>18.600000000000001</v>
       </c>
@@ -2476,8 +3606,14 @@
       <c r="C188">
         <v>3.9922641376918802E-3</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188">
+        <v>19.7</v>
+      </c>
+      <c r="E188">
+        <v>579.11715842474632</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>18.7</v>
       </c>
@@ -2487,8 +3623,14 @@
       <c r="C189">
         <v>3.8929285499785179E-3</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189">
+        <v>19.8</v>
+      </c>
+      <c r="E189">
+        <v>566.03562535818151</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>18.8</v>
       </c>
@@ -2498,8 +3640,14 @@
       <c r="C190">
         <v>3.9174737013119064E-3</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E190">
+        <v>542.28436722076049</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>18.899999999999999</v>
       </c>
@@ -2509,8 +3657,14 @@
       <c r="C191">
         <v>3.9621957743285197E-3</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191">
+        <v>20</v>
+      </c>
+      <c r="E191">
+        <v>458.43659177066985</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>19</v>
       </c>

--- a/exposan/pm2_ecorecover/data/dynamic_simul_result_validation.xlsx
+++ b/exposan/pm2_ecorecover/data/dynamic_simul_result_validation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Downloads\EXPOsan\exposan\pm2_ecorecover\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FEDC17-DB61-45C1-B5B3-650C2D4BF1A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C75290B-FB08-4B6D-B2E1-F8EA4E1DA218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{DEEFF93F-8712-407E-800A-077FF6958EEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>t_stamp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,14 +36,6 @@
   </si>
   <si>
     <t>SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yield_1d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_stamp_yield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DDD832-617E-423B-B3BC-9FD3F4E9EB72}">
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E191"/>
+      <selection activeCell="C2" sqref="C2:C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,14 +419,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -444,14 +430,8 @@
       <c r="C2" s="1">
         <v>0.47520980408053809</v>
       </c>
-      <c r="D2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E2">
-        <v>125.46408040695123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -461,14 +441,8 @@
       <c r="C3" s="1">
         <v>1.359144491618129E-2</v>
       </c>
-      <c r="D3">
-        <v>1.2</v>
-      </c>
-      <c r="E3">
-        <v>125.2592838688599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -478,14 +452,8 @@
       <c r="C4" s="1">
         <v>9.160584553864504E-3</v>
       </c>
-      <c r="D4">
-        <v>1.3</v>
-      </c>
-      <c r="E4">
-        <v>129.98039785761986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.3</v>
       </c>
@@ -495,14 +463,8 @@
       <c r="C5" s="1">
         <v>8.957608015695704E-3</v>
       </c>
-      <c r="D5">
-        <v>1.4</v>
-      </c>
-      <c r="E5">
-        <v>139.16383188410893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -512,14 +474,8 @@
       <c r="C6" s="1">
         <v>8.6969474017150657E-3</v>
       </c>
-      <c r="D6">
-        <v>1.5</v>
-      </c>
-      <c r="E6">
-        <v>150.90730486886002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -529,14 +485,8 @@
       <c r="C7" s="1">
         <v>8.3760474057200801E-3</v>
       </c>
-      <c r="D7">
-        <v>1.6</v>
-      </c>
-      <c r="E7">
-        <v>160.75420312858139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.60000000000000009</v>
       </c>
@@ -546,14 +496,8 @@
       <c r="C8" s="1">
         <v>8.0404481997988671E-3</v>
       </c>
-      <c r="D8">
-        <v>1.7</v>
-      </c>
-      <c r="E8">
-        <v>171.8547594986303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.70000000000000007</v>
       </c>
@@ -563,14 +507,8 @@
       <c r="C9" s="1">
         <v>7.6861545423046384E-3</v>
       </c>
-      <c r="D9">
-        <v>1.8</v>
-      </c>
-      <c r="E9">
-        <v>174.13440325483668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.8</v>
       </c>
@@ -580,14 +518,8 @@
       <c r="C10" s="1">
         <v>7.4003776034766563E-3</v>
       </c>
-      <c r="D10">
-        <v>1.9</v>
-      </c>
-      <c r="E10">
-        <v>175.55146194766019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.9</v>
       </c>
@@ -597,14 +529,8 @@
       <c r="C11" s="1">
         <v>7.2576230245377854E-3</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>178.90097306978313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -614,14 +540,8 @@
       <c r="C12" s="1">
         <v>7.1083425887377609E-3</v>
       </c>
-      <c r="D12">
-        <v>2.1</v>
-      </c>
-      <c r="E12">
-        <v>181.9886509794332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
@@ -631,14 +551,8 @@
       <c r="C13" s="1">
         <v>6.9197992657148042E-3</v>
       </c>
-      <c r="D13">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E13">
-        <v>187.22419336852269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.2</v>
       </c>
@@ -648,14 +562,8 @@
       <c r="C14" s="1">
         <v>6.7639869356062041E-3</v>
       </c>
-      <c r="D14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E14">
-        <v>190.41382604077617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.3</v>
       </c>
@@ -665,14 +573,8 @@
       <c r="C15" s="1">
         <v>6.5966998337334366E-3</v>
       </c>
-      <c r="D15">
-        <v>2.4</v>
-      </c>
-      <c r="E15">
-        <v>198.06027857173876</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.4</v>
       </c>
@@ -682,14 +584,8 @@
       <c r="C16" s="1">
         <v>6.3783713654517538E-3</v>
       </c>
-      <c r="D16">
-        <v>2.5</v>
-      </c>
-      <c r="E16">
-        <v>206.3450148162631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.5</v>
       </c>
@@ -699,14 +595,8 @@
       <c r="C17" s="1">
         <v>6.2244202777314303E-3</v>
       </c>
-      <c r="D17">
-        <v>2.6</v>
-      </c>
-      <c r="E17">
-        <v>216.82159529921111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.6</v>
       </c>
@@ -716,14 +606,8 @@
       <c r="C18" s="1">
         <v>6.0826027282825726E-3</v>
       </c>
-      <c r="D18">
-        <v>2.7</v>
-      </c>
-      <c r="E18">
-        <v>235.14430056278255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.7</v>
       </c>
@@ -733,14 +617,8 @@
       <c r="C19" s="1">
         <v>5.8608960104702566E-3</v>
       </c>
-      <c r="D19">
-        <v>2.8</v>
-      </c>
-      <c r="E19">
-        <v>235.04912191066293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.8</v>
       </c>
@@ -750,14 +628,8 @@
       <c r="C20" s="1">
         <v>5.8894837556563249E-3</v>
       </c>
-      <c r="D20">
-        <v>2.9</v>
-      </c>
-      <c r="E20">
-        <v>231.71400125563329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.9</v>
       </c>
@@ -767,14 +639,8 @@
       <c r="C21" s="1">
         <v>5.771686068499802E-3</v>
       </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>232.22593651413555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -784,14 +650,8 @@
       <c r="C22" s="1">
         <v>5.8297879216170764E-3</v>
       </c>
-      <c r="D22">
-        <v>3.1</v>
-      </c>
-      <c r="E22">
-        <v>232.1792913962704</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.1</v>
       </c>
@@ -801,14 +661,8 @@
       <c r="C23" s="1">
         <v>5.7358745709813874E-3</v>
       </c>
-      <c r="D23">
-        <v>3.2</v>
-      </c>
-      <c r="E23">
-        <v>227.50672815066346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
@@ -818,14 +672,8 @@
       <c r="C24" s="1">
         <v>5.7482868515330039E-3</v>
       </c>
-      <c r="D24">
-        <v>3.3</v>
-      </c>
-      <c r="E24">
-        <v>219.48171919317591</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.2999999999999998</v>
       </c>
@@ -835,14 +683,8 @@
       <c r="C25" s="1">
         <v>5.6773146221173777E-3</v>
       </c>
-      <c r="D25">
-        <v>3.4</v>
-      </c>
-      <c r="E25">
-        <v>216.20062023229551</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2.4</v>
       </c>
@@ -852,14 +694,8 @@
       <c r="C26" s="1">
         <v>5.7325396730076314E-3</v>
       </c>
-      <c r="D26">
-        <v>3.5</v>
-      </c>
-      <c r="E26">
-        <v>210.10358859433211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2.5</v>
       </c>
@@ -869,14 +705,8 @@
       <c r="C27" s="1">
         <v>5.5058131090764371E-3</v>
       </c>
-      <c r="D27">
-        <v>3.6</v>
-      </c>
-      <c r="E27">
-        <v>209.27965239101079</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.6</v>
       </c>
@@ -886,14 +716,8 @@
       <c r="C28" s="1">
         <v>5.4716151071490847E-3</v>
       </c>
-      <c r="D28">
-        <v>3.7</v>
-      </c>
-      <c r="E28">
-        <v>212.74935391096957</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2.7</v>
       </c>
@@ -903,14 +727,8 @@
       <c r="C29" s="1">
         <v>5.3922629037571161E-3</v>
       </c>
-      <c r="D29">
-        <v>3.8</v>
-      </c>
-      <c r="E29">
-        <v>189.16267899137418</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2.8</v>
       </c>
@@ -920,14 +738,8 @@
       <c r="C30" s="1">
         <v>5.4435262733897299E-3</v>
       </c>
-      <c r="D30">
-        <v>3.9</v>
-      </c>
-      <c r="E30">
-        <v>169.52474755564606</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.9</v>
       </c>
@@ -937,14 +749,8 @@
       <c r="C31" s="1">
         <v>5.552689434761655E-3</v>
       </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>154.55016587234073</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -954,14 +760,8 @@
       <c r="C32" s="1">
         <v>5.6702045553572644E-3</v>
       </c>
-      <c r="D32">
-        <v>4.1000000000000014</v>
-      </c>
-      <c r="E32">
-        <v>145.10262571977844</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3.1</v>
       </c>
@@ -971,14 +771,8 @@
       <c r="C33" s="1">
         <v>5.7834355515076364E-3</v>
       </c>
-      <c r="D33">
-        <v>4.2</v>
-      </c>
-      <c r="E33">
-        <v>136.59047022629522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3.2</v>
       </c>
@@ -988,14 +782,8 @@
       <c r="C34" s="1">
         <v>5.8919997407576499E-3</v>
       </c>
-      <c r="D34">
-        <v>4.3</v>
-      </c>
-      <c r="E34">
-        <v>133.24825010296743</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3.3</v>
       </c>
@@ -1005,14 +793,8 @@
       <c r="C35" s="1">
         <v>5.9920239296745812E-3</v>
       </c>
-      <c r="D35">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E35">
-        <v>136.99146366154042</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3.4</v>
       </c>
@@ -1022,14 +804,8 @@
       <c r="C36" s="1">
         <v>6.0594481997230014E-3</v>
       </c>
-      <c r="D36">
-        <v>4.5</v>
-      </c>
-      <c r="E36">
-        <v>143.79842890856128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3.5</v>
       </c>
@@ -1039,14 +815,8 @@
       <c r="C37" s="1">
         <v>6.2392394135533831E-3</v>
       </c>
-      <c r="D37">
-        <v>4.6000000000000014</v>
-      </c>
-      <c r="E37">
-        <v>154.33629108491994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3.6</v>
       </c>
@@ -1056,14 +826,8 @@
       <c r="C38" s="1">
         <v>6.3395096433929276E-3</v>
       </c>
-      <c r="D38">
-        <v>4.7</v>
-      </c>
-      <c r="E38">
-        <v>156.70543035918655</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3.7</v>
       </c>
@@ -1073,14 +837,8 @@
       <c r="C39" s="1">
         <v>6.281231524417008E-3</v>
       </c>
-      <c r="D39">
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="E39">
-        <v>130.9129015802956</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3.8</v>
       </c>
@@ -1090,14 +848,8 @@
       <c r="C40" s="1">
         <v>6.3443233308650626E-3</v>
       </c>
-      <c r="D40">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E40">
-        <v>118.67004079952625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3.9</v>
       </c>
@@ -1107,14 +859,8 @@
       <c r="C41" s="1">
         <v>6.4646879764931166E-3</v>
       </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41">
-        <v>119.06473108195752</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1124,14 +870,8 @@
       <c r="C42" s="1">
         <v>6.6224122260395372E-3</v>
       </c>
-      <c r="D42">
-        <v>5.1000000000000014</v>
-      </c>
-      <c r="E42">
-        <v>125.40882090142595</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4.1000000000000014</v>
       </c>
@@ -1141,14 +881,8 @@
       <c r="C43" s="1">
         <v>6.7553342806547676E-3</v>
       </c>
-      <c r="D43">
-        <v>5.2</v>
-      </c>
-      <c r="E43">
-        <v>127.11242982337744</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4.2</v>
       </c>
@@ -1158,14 +892,8 @@
       <c r="C44" s="1">
         <v>6.6177659971919456E-3</v>
       </c>
-      <c r="D44">
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="E44">
-        <v>128.36115648288074</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4.3</v>
       </c>
@@ -1175,14 +903,8 @@
       <c r="C45" s="1">
         <v>6.6711412303564104E-3</v>
       </c>
-      <c r="D45">
-        <v>5.4</v>
-      </c>
-      <c r="E45">
-        <v>134.01227451673563</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4.4000000000000004</v>
       </c>
@@ -1192,14 +914,8 @@
       <c r="C46" s="1">
         <v>6.7403424854064493E-3</v>
       </c>
-      <c r="D46">
-        <v>5.5</v>
-      </c>
-      <c r="E46">
-        <v>138.80586526408669</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4.5</v>
       </c>
@@ -1209,14 +925,8 @@
       <c r="C47" s="1">
         <v>6.758500597301511E-3</v>
       </c>
-      <c r="D47">
-        <v>5.6000000000000014</v>
-      </c>
-      <c r="E47">
-        <v>146.47128372184946</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4.6000000000000014</v>
       </c>
@@ -1226,14 +936,8 @@
       <c r="C48" s="1">
         <v>6.7512120383930148E-3</v>
       </c>
-      <c r="D48">
-        <v>5.7</v>
-      </c>
-      <c r="E48">
-        <v>153.38553626486484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4.7</v>
       </c>
@@ -1243,14 +947,8 @@
       <c r="C49" s="1">
         <v>6.7392858779221233E-3</v>
       </c>
-      <c r="D49">
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="E49">
-        <v>136.43572899669502</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4.8000000000000007</v>
       </c>
@@ -1260,14 +958,8 @@
       <c r="C50" s="1">
         <v>6.5391646928768896E-3</v>
       </c>
-      <c r="D50">
-        <v>5.9</v>
-      </c>
-      <c r="E50">
-        <v>133.74572836448769</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4.9000000000000004</v>
       </c>
@@ -1277,14 +969,8 @@
       <c r="C51" s="1">
         <v>6.6471515803144584E-3</v>
       </c>
-      <c r="D51">
-        <v>6</v>
-      </c>
-      <c r="E51">
-        <v>135.57812180944438</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1294,14 +980,8 @@
       <c r="C52" s="1">
         <v>6.7690991449215693E-3</v>
       </c>
-      <c r="D52">
-        <v>6.1000000000000014</v>
-      </c>
-      <c r="E52">
-        <v>136.49764497502267</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5.1000000000000014</v>
       </c>
@@ -1311,14 +991,8 @@
       <c r="C53" s="1">
         <v>6.8774285188460916E-3</v>
       </c>
-      <c r="D53">
-        <v>6.2</v>
-      </c>
-      <c r="E53">
-        <v>137.43262893095095</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5.2</v>
       </c>
@@ -1328,14 +1002,8 @@
       <c r="C54" s="1">
         <v>6.9798604081972339E-3</v>
       </c>
-      <c r="D54">
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="E54">
-        <v>138.31057467697181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5.3000000000000007</v>
       </c>
@@ -1345,14 +1013,8 @@
       <c r="C55" s="1">
         <v>6.7674734725172783E-3</v>
       </c>
-      <c r="D55">
-        <v>6.4</v>
-      </c>
-      <c r="E55">
-        <v>131.18904779224249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5.4</v>
       </c>
@@ -1362,14 +1024,8 @@
       <c r="C56" s="1">
         <v>6.8277809313653289E-3</v>
       </c>
-      <c r="D56">
-        <v>6.5</v>
-      </c>
-      <c r="E56">
-        <v>120.51897582838784</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5.5</v>
       </c>
@@ -1379,14 +1035,8 @@
       <c r="C57" s="1">
         <v>6.8708276267085951E-3</v>
       </c>
-      <c r="D57">
-        <v>6.6000000000000014</v>
-      </c>
-      <c r="E57">
-        <v>111.75319405441336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5.6000000000000014</v>
       </c>
@@ -1396,14 +1046,8 @@
       <c r="C58" s="1">
         <v>6.8782023865813146E-3</v>
       </c>
-      <c r="D58">
-        <v>6.7</v>
-      </c>
-      <c r="E58">
-        <v>85.512873872330715</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5.7</v>
       </c>
@@ -1413,14 +1057,8 @@
       <c r="C59" s="1">
         <v>6.873661504264667E-3</v>
       </c>
-      <c r="D59">
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="E59">
-        <v>54.020180002322967</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5.8000000000000007</v>
       </c>
@@ -1430,14 +1068,8 @@
       <c r="C60" s="1">
         <v>6.6467199783361158E-3</v>
       </c>
-      <c r="D60">
-        <v>6.9</v>
-      </c>
-      <c r="E60">
-        <v>54.170386444131758</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5.9</v>
       </c>
@@ -1447,14 +1079,8 @@
       <c r="C61" s="1">
         <v>6.7385629539038986E-3</v>
       </c>
-      <c r="D61">
-        <v>7</v>
-      </c>
-      <c r="E61">
-        <v>57.159069235450175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6</v>
       </c>
@@ -1464,14 +1090,8 @@
       <c r="C62" s="1">
         <v>6.847438692920131E-3</v>
       </c>
-      <c r="D62">
-        <v>7.1000000000000014</v>
-      </c>
-      <c r="E62">
-        <v>60.026973882365773</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6.1000000000000014</v>
       </c>
@@ -1481,14 +1101,8 @@
       <c r="C63" s="1">
         <v>6.955987009147048E-3</v>
       </c>
-      <c r="D63">
-        <v>7.2</v>
-      </c>
-      <c r="E63">
-        <v>62.497476087297059</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6.2</v>
       </c>
@@ -1498,14 +1112,8 @@
       <c r="C64" s="1">
         <v>7.05667429644272E-3</v>
       </c>
-      <c r="D64">
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="E64">
-        <v>64.854398133508326</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6.3000000000000007</v>
       </c>
@@ -1515,14 +1123,8 @@
       <c r="C65" s="1">
         <v>6.818293536028479E-3</v>
       </c>
-      <c r="D65">
-        <v>7.4</v>
-      </c>
-      <c r="E65">
-        <v>57.19287983015375</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6.4</v>
       </c>
@@ -1532,14 +1134,8 @@
       <c r="C66" s="1">
         <v>6.9194104717846963E-3</v>
       </c>
-      <c r="D66">
-        <v>7.5</v>
-      </c>
-      <c r="E66">
-        <v>57.19287983015375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6.5</v>
       </c>
@@ -1549,14 +1145,8 @@
       <c r="C67" s="1">
         <v>7.0402850812440734E-3</v>
       </c>
-      <c r="D67">
-        <v>7.6000000000000014</v>
-      </c>
-      <c r="E67">
-        <v>55.848656562958723</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6.6000000000000014</v>
       </c>
@@ -1566,14 +1156,8 @@
       <c r="C68" s="1">
         <v>7.1179063182428897E-3</v>
       </c>
-      <c r="D68">
-        <v>7.7</v>
-      </c>
-      <c r="E68">
-        <v>49.161285146610993</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6.7</v>
       </c>
@@ -1583,14 +1167,8 @@
       <c r="C69" s="1">
         <v>7.2480995642089903E-3</v>
       </c>
-      <c r="D69">
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="E69">
-        <v>58.999167238716488</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6.8000000000000007</v>
       </c>
@@ -1600,14 +1178,8 @@
       <c r="C70" s="1">
         <v>7.004641147893835E-3</v>
       </c>
-      <c r="D70">
-        <v>7.9</v>
-      </c>
-      <c r="E70">
-        <v>70.907293008196348</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6.9</v>
       </c>
@@ -1617,14 +1189,8 @@
       <c r="C71" s="1">
         <v>7.040165449180312E-3</v>
       </c>
-      <c r="D71">
-        <v>8</v>
-      </c>
-      <c r="E71">
-        <v>71.282534816513632</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7</v>
       </c>
@@ -1634,14 +1200,8 @@
       <c r="C72" s="1">
         <v>7.1049559595268638E-3</v>
       </c>
-      <c r="D72">
-        <v>8.1</v>
-      </c>
-      <c r="E72">
-        <v>71.689464696967278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7.1000000000000014</v>
       </c>
@@ -1651,14 +1211,8 @@
       <c r="C73" s="1">
         <v>7.1808807076713908E-3</v>
       </c>
-      <c r="D73">
-        <v>8.2000000000000011</v>
-      </c>
-      <c r="E73">
-        <v>71.45785679985201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7.2</v>
       </c>
@@ -1668,14 +1222,8 @@
       <c r="C74" s="1">
         <v>7.2626113608568292E-3</v>
       </c>
-      <c r="D74">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E74">
-        <v>71.399107175009945</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7.3000000000000007</v>
       </c>
@@ -1685,14 +1233,8 @@
       <c r="C75" s="1">
         <v>7.2836678211915286E-3</v>
       </c>
-      <c r="D75">
-        <v>8.4</v>
-      </c>
-      <c r="E75">
-        <v>61.876355566725813</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7.4</v>
       </c>
@@ -1702,14 +1244,8 @@
       <c r="C76" s="1">
         <v>7.0538480844661534E-3</v>
       </c>
-      <c r="D76">
-        <v>8.5</v>
-      </c>
-      <c r="E76">
-        <v>69.89905432695879</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7.5</v>
       </c>
@@ -1719,14 +1255,8 @@
       <c r="C77" s="1">
         <v>7.1788819390059284E-3</v>
       </c>
-      <c r="D77">
-        <v>8.6</v>
-      </c>
-      <c r="E77">
-        <v>83.863955111666868</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7.6000000000000014</v>
       </c>
@@ -1736,14 +1266,8 @@
       <c r="C78" s="1">
         <v>7.2970982114000183E-3</v>
       </c>
-      <c r="D78">
-        <v>8.7000000000000011</v>
-      </c>
-      <c r="E78">
-        <v>90.151461330318597</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>7.7</v>
       </c>
@@ -1753,14 +1277,8 @@
       <c r="C79" s="1">
         <v>7.4160528019556714E-3</v>
       </c>
-      <c r="D79">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E79">
-        <v>96.242213450305272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7.8000000000000007</v>
       </c>
@@ -1770,14 +1288,8 @@
       <c r="C80" s="1">
         <v>7.4880213746730262E-3</v>
       </c>
-      <c r="D80">
-        <v>8.9</v>
-      </c>
-      <c r="E80">
-        <v>93.995416163030896</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>7.9</v>
       </c>
@@ -1787,14 +1299,8 @@
       <c r="C81" s="1">
         <v>7.5324259300587754E-3</v>
       </c>
-      <c r="D81">
-        <v>9</v>
-      </c>
-      <c r="E81">
-        <v>88.914782378889186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8</v>
       </c>
@@ -1804,14 +1310,8 @@
       <c r="C82" s="1">
         <v>7.5948686034425046E-3</v>
       </c>
-      <c r="D82">
-        <v>9.1</v>
-      </c>
-      <c r="E82">
-        <v>84.690479280021762</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8.1</v>
       </c>
@@ -1821,14 +1321,8 @@
       <c r="C83" s="1">
         <v>7.6688190060172894E-3</v>
       </c>
-      <c r="D83">
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="E83">
-        <v>80.48734306984538</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8.2000000000000011</v>
       </c>
@@ -1838,14 +1332,8 @@
       <c r="C84" s="1">
         <v>7.7496730990876863E-3</v>
       </c>
-      <c r="D84">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E84">
-        <v>77.192450221364879</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8.3000000000000007</v>
       </c>
@@ -1855,14 +1343,8 @@
       <c r="C85" s="1">
         <v>8.2644569672034665E-3</v>
       </c>
-      <c r="D85">
-        <v>9.4</v>
-      </c>
-      <c r="E85">
-        <v>71.122734465403298</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8.4</v>
       </c>
@@ -1872,14 +1354,8 @@
       <c r="C86" s="1">
         <v>8.4108114800716047E-3</v>
       </c>
-      <c r="D86">
-        <v>9.5</v>
-      </c>
-      <c r="E86">
-        <v>72.364317439979871</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8.5</v>
       </c>
@@ -1889,14 +1365,8 @@
       <c r="C87" s="1">
         <v>8.5170666243855348E-3</v>
       </c>
-      <c r="D87">
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="E87">
-        <v>78.244615291034719</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>8.6</v>
       </c>
@@ -1906,14 +1376,8 @@
       <c r="C88" s="1">
         <v>9.0124840833041443E-3</v>
       </c>
-      <c r="D88">
-        <v>9.7000000000000011</v>
-      </c>
-      <c r="E88">
-        <v>84.469275390846391</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8.7000000000000011</v>
       </c>
@@ -1923,14 +1387,8 @@
       <c r="C89" s="1">
         <v>9.1362480803927702E-3</v>
       </c>
-      <c r="D89">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E89">
-        <v>86.498974142003817</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8.8000000000000007</v>
       </c>
@@ -1940,14 +1398,8 @@
       <c r="C90" s="1">
         <v>9.6797810613787963E-3</v>
       </c>
-      <c r="D90">
-        <v>9.9</v>
-      </c>
-      <c r="E90">
-        <v>85.857468517592665</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>8.9</v>
       </c>
@@ -1957,14 +1409,8 @@
       <c r="C91" s="1">
         <v>1.014489047515332E-2</v>
       </c>
-      <c r="D91">
-        <v>10</v>
-      </c>
-      <c r="E91">
-        <v>83.381144564589121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>9</v>
       </c>
@@ -1974,14 +1420,8 @@
       <c r="C92" s="1">
         <v>1.0358468605866269E-2</v>
       </c>
-      <c r="D92">
-        <v>10.1</v>
-      </c>
-      <c r="E92">
-        <v>81.614672112538543</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>9.1</v>
       </c>
@@ -1991,14 +1431,8 @@
       <c r="C93" s="1">
         <v>1.092389446917107E-2</v>
       </c>
-      <c r="D93">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E93">
-        <v>79.973791691818192</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9.2000000000000011</v>
       </c>
@@ -2008,14 +1442,8 @@
       <c r="C94" s="1">
         <v>1.144565340655751E-2</v>
       </c>
-      <c r="D94">
-        <v>10.3</v>
-      </c>
-      <c r="E94">
-        <v>78.885902670952433</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>9.3000000000000007</v>
       </c>
@@ -2025,14 +1453,8 @@
       <c r="C95" s="1">
         <v>1.165738887824991E-2</v>
       </c>
-      <c r="D95">
-        <v>10.4</v>
-      </c>
-      <c r="E95">
-        <v>73.929245758657373</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9.4</v>
       </c>
@@ -2042,14 +1464,8 @@
       <c r="C96" s="1">
         <v>1.2223181082340859E-2</v>
       </c>
-      <c r="D96">
-        <v>10.5</v>
-      </c>
-      <c r="E96">
-        <v>76.289375905623217</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9.5</v>
       </c>
@@ -2059,14 +1475,8 @@
       <c r="C97" s="1">
         <v>1.270223356499108E-2</v>
       </c>
-      <c r="D97">
-        <v>10.6</v>
-      </c>
-      <c r="E97">
-        <v>88.728029650145402</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>9.6000000000000014</v>
       </c>
@@ -2076,14 +1486,8 @@
       <c r="C98" s="1">
         <v>1.2814962740387631E-2</v>
       </c>
-      <c r="D98">
-        <v>10.7</v>
-      </c>
-      <c r="E98">
-        <v>96.333295430436095</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9.7000000000000011</v>
       </c>
@@ -2093,14 +1497,8 @@
       <c r="C99" s="1">
         <v>1.2660058753037339E-2</v>
       </c>
-      <c r="D99">
-        <v>10.8</v>
-      </c>
-      <c r="E99">
-        <v>84.797679827364021</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>9.8000000000000007</v>
       </c>
@@ -2110,14 +1508,8 @@
       <c r="C100" s="1">
         <v>1.3144794063276051E-2</v>
       </c>
-      <c r="D100">
-        <v>10.9</v>
-      </c>
-      <c r="E100">
-        <v>76.480474857554867</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>9.9</v>
       </c>
@@ -2127,14 +1519,8 @@
       <c r="C101" s="1">
         <v>1.326246720867953E-2</v>
       </c>
-      <c r="D101">
-        <v>11</v>
-      </c>
-      <c r="E101">
-        <v>71.031228361979345</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>10</v>
       </c>
@@ -2144,14 +1530,8 @@
       <c r="C102" s="1">
         <v>1.3375458732089909E-2</v>
       </c>
-      <c r="D102">
-        <v>11.1</v>
-      </c>
-      <c r="E102">
-        <v>69.876382330575282</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>10.1</v>
       </c>
@@ -2161,14 +1541,8 @@
       <c r="C103" s="1">
         <v>1.34820331115239E-2</v>
       </c>
-      <c r="D103">
-        <v>11.2</v>
-      </c>
-      <c r="E103">
-        <v>69.413463259087649</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>10.199999999999999</v>
       </c>
@@ -2178,14 +1552,8 @@
       <c r="C104" s="1">
         <v>1.358124028671818E-2</v>
       </c>
-      <c r="D104">
-        <v>11.3</v>
-      </c>
-      <c r="E104">
-        <v>69.476034398335727</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>10.3</v>
       </c>
@@ -2195,14 +1563,8 @@
       <c r="C105" s="1">
         <v>1.3671042442472419E-2</v>
       </c>
-      <c r="D105">
-        <v>11.4</v>
-      </c>
-      <c r="E105">
-        <v>65.982860281227204</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>10.4</v>
       </c>
@@ -2212,14 +1574,8 @@
       <c r="C106" s="1">
         <v>1.3781695001578021E-2</v>
       </c>
-      <c r="D106">
-        <v>11.5</v>
-      </c>
-      <c r="E106">
-        <v>69.695733056770379</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>10.5</v>
       </c>
@@ -2229,14 +1585,8 @@
       <c r="C107" s="1">
         <v>1.3859611467389499E-2</v>
       </c>
-      <c r="D107">
-        <v>11.6</v>
-      </c>
-      <c r="E107">
-        <v>76.400612479243932</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>10.6</v>
       </c>
@@ -2246,14 +1596,8 @@
       <c r="C108" s="1">
         <v>1.3286292758046591E-2</v>
       </c>
-      <c r="D108">
-        <v>11.7</v>
-      </c>
-      <c r="E108">
-        <v>68.687758249137389</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>10.7</v>
       </c>
@@ -2263,14 +1607,8 @@
       <c r="C109" s="1">
         <v>1.30314762646311E-2</v>
       </c>
-      <c r="D109">
-        <v>11.8</v>
-      </c>
-      <c r="E109">
-        <v>52.462772285516593</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>10.8</v>
       </c>
@@ -2280,14 +1618,8 @@
       <c r="C110" s="1">
         <v>1.302661397504936E-2</v>
       </c>
-      <c r="D110">
-        <v>11.9</v>
-      </c>
-      <c r="E110">
-        <v>51.126529172667695</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>10.9</v>
       </c>
@@ -2297,14 +1629,8 @@
       <c r="C111" s="1">
         <v>1.3163884938983621E-2</v>
       </c>
-      <c r="D111">
-        <v>12</v>
-      </c>
-      <c r="E111">
-        <v>58.064774577786281</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>11</v>
       </c>
@@ -2314,14 +1640,8 @@
       <c r="C112" s="1">
         <v>1.398358399721561E-2</v>
       </c>
-      <c r="D112">
-        <v>12.1</v>
-      </c>
-      <c r="E112">
-        <v>65.090343189553479</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>11.1</v>
       </c>
@@ -2331,14 +1651,8 @@
       <c r="C113" s="1">
         <v>1.4192884067313481E-2</v>
       </c>
-      <c r="D113">
-        <v>12.2</v>
-      </c>
-      <c r="E113">
-        <v>68.301205293623426</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>11.2</v>
       </c>
@@ -2348,14 +1662,8 @@
       <c r="C114" s="1">
         <v>1.454472716376643E-2</v>
       </c>
-      <c r="D114">
-        <v>12.3</v>
-      </c>
-      <c r="E114">
-        <v>71.109287157711364</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>11.3</v>
       </c>
@@ -2365,14 +1673,8 @@
       <c r="C115" s="1">
         <v>1.480596324158099E-2</v>
       </c>
-      <c r="D115">
-        <v>12.4</v>
-      </c>
-      <c r="E115">
-        <v>66.546642484441179</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>11.4</v>
       </c>
@@ -2382,14 +1684,8 @@
       <c r="C116" s="1">
         <v>1.4940998915751199E-2</v>
       </c>
-      <c r="D116">
-        <v>12.5</v>
-      </c>
-      <c r="E116">
-        <v>69.721236336479009</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>11.5</v>
       </c>
@@ -2399,14 +1695,8 @@
       <c r="C117" s="1">
         <v>1.490399156484048E-2</v>
       </c>
-      <c r="D117">
-        <v>12.6</v>
-      </c>
-      <c r="E117">
-        <v>73.308219327114514</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>11.6</v>
       </c>
@@ -2416,14 +1706,8 @@
       <c r="C118" s="1">
         <v>1.427219849541512E-2</v>
       </c>
-      <c r="D118">
-        <v>12.7</v>
-      </c>
-      <c r="E118">
-        <v>63.651113801266312</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>11.7</v>
       </c>
@@ -2433,14 +1717,8 @@
       <c r="C119" s="1">
         <v>1.41521743477061E-2</v>
       </c>
-      <c r="D119">
-        <v>12.8</v>
-      </c>
-      <c r="E119">
-        <v>64.688242658664137</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>11.8</v>
       </c>
@@ -2450,14 +1728,8 @@
       <c r="C120" s="1">
         <v>1.3716471106749209E-2</v>
       </c>
-      <c r="D120">
-        <v>12.9</v>
-      </c>
-      <c r="E120">
-        <v>70.359459987590199</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>11.9</v>
       </c>
@@ -2467,14 +1739,8 @@
       <c r="C121" s="1">
         <v>1.367395838510584E-2</v>
       </c>
-      <c r="D121">
-        <v>13</v>
-      </c>
-      <c r="E121">
-        <v>74.082469637746016</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>12</v>
       </c>
@@ -2484,14 +1750,8 @@
       <c r="C122" s="1">
         <v>1.321741742341734E-2</v>
       </c>
-      <c r="D122">
-        <v>13.1</v>
-      </c>
-      <c r="E122">
-        <v>78.641777570353383</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>12.1</v>
       </c>
@@ -2501,14 +1761,8 @@
       <c r="C123" s="1">
         <v>1.2802705222195549E-2</v>
       </c>
-      <c r="D123">
-        <v>13.2</v>
-      </c>
-      <c r="E123">
-        <v>83.638766904064099</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>12.2</v>
       </c>
@@ -2518,14 +1772,8 @@
       <c r="C124" s="1">
         <v>1.2360780894741611E-2</v>
       </c>
-      <c r="D124">
-        <v>13.3</v>
-      </c>
-      <c r="E124">
-        <v>91.685806980178597</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>12.3</v>
       </c>
@@ -2535,14 +1783,8 @@
       <c r="C125" s="1">
         <v>1.186135959717736E-2</v>
       </c>
-      <c r="D125">
-        <v>13.4</v>
-      </c>
-      <c r="E125">
-        <v>90.822822812479799</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>12.4</v>
       </c>
@@ -2552,14 +1794,8 @@
       <c r="C126" s="1">
         <v>1.1377702990724889E-2</v>
       </c>
-      <c r="D126">
-        <v>13.5</v>
-      </c>
-      <c r="E126">
-        <v>102.01524660523302</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>12.5</v>
       </c>
@@ -2569,14 +1805,8 @@
       <c r="C127" s="1">
         <v>1.1405011829465621E-2</v>
       </c>
-      <c r="D127">
-        <v>13.6</v>
-      </c>
-      <c r="E127">
-        <v>144.28232542397834</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>12.6</v>
       </c>
@@ -2586,14 +1816,8 @@
       <c r="C128" s="1">
         <v>1.092765708615351E-2</v>
       </c>
-      <c r="D128">
-        <v>13.7</v>
-      </c>
-      <c r="E128">
-        <v>206.22914267545787</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>12.7</v>
       </c>
@@ -2603,14 +1827,8 @@
       <c r="C129" s="1">
         <v>1.053083064925087E-2</v>
       </c>
-      <c r="D129">
-        <v>13.8</v>
-      </c>
-      <c r="E129">
-        <v>233.23622869140888</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>12.8</v>
       </c>
@@ -2620,14 +1838,8 @@
       <c r="C130" s="1">
         <v>1.015967711869575E-2</v>
       </c>
-      <c r="D130">
-        <v>13.9</v>
-      </c>
-      <c r="E130">
-        <v>250.60376753356257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>12.9</v>
       </c>
@@ -2637,14 +1849,8 @@
       <c r="C131" s="1">
         <v>9.7341578224981601E-3</v>
       </c>
-      <c r="D131">
-        <v>14</v>
-      </c>
-      <c r="E131">
-        <v>268.61154932499852</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>13</v>
       </c>
@@ -2654,14 +1860,8 @@
       <c r="C132" s="1">
         <v>9.2172039494543348E-3</v>
       </c>
-      <c r="D132">
-        <v>14.1</v>
-      </c>
-      <c r="E132">
-        <v>293.57466831785592</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>13.1</v>
       </c>
@@ -2671,14 +1871,8 @@
       <c r="C133" s="1">
         <v>8.590653089104297E-3</v>
       </c>
-      <c r="D133">
-        <v>14.2</v>
-      </c>
-      <c r="E133">
-        <v>330.18179286388818</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>13.2</v>
       </c>
@@ -2688,14 +1882,8 @@
       <c r="C134" s="1">
         <v>7.9653104349876724E-3</v>
       </c>
-      <c r="D134">
-        <v>14.3</v>
-      </c>
-      <c r="E134">
-        <v>398.16670323688595</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>13.3</v>
       </c>
@@ -2705,14 +1893,8 @@
       <c r="C135" s="1">
         <v>7.334658238424053E-3</v>
       </c>
-      <c r="D135">
-        <v>14.4</v>
-      </c>
-      <c r="E135">
-        <v>384.15733883554907</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>13.4</v>
       </c>
@@ -2722,14 +1904,8 @@
       <c r="C136" s="1">
         <v>6.7239804878722123E-3</v>
       </c>
-      <c r="D136">
-        <v>14.5</v>
-      </c>
-      <c r="E136">
-        <v>377.6141406773599</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>13.5</v>
       </c>
@@ -2739,14 +1915,8 @@
       <c r="C137" s="1">
         <v>6.2154703051718564E-3</v>
       </c>
-      <c r="D137">
-        <v>14.6</v>
-      </c>
-      <c r="E137">
-        <v>366.70436683471701</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>13.6</v>
       </c>
@@ -2756,14 +1926,8 @@
       <c r="C138" s="1">
         <v>5.6341095721220216E-3</v>
       </c>
-      <c r="D138">
-        <v>14.7</v>
-      </c>
-      <c r="E138">
-        <v>319.62910943156317</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>13.7</v>
       </c>
@@ -2773,14 +1937,8 @@
       <c r="C139" s="1">
         <v>5.0092252291887504E-3</v>
       </c>
-      <c r="D139">
-        <v>14.8</v>
-      </c>
-      <c r="E139">
-        <v>284.75860091258335</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>13.8</v>
       </c>
@@ -2790,14 +1948,8 @@
       <c r="C140" s="1">
         <v>4.4420089772794023E-3</v>
       </c>
-      <c r="D140">
-        <v>14.9</v>
-      </c>
-      <c r="E140">
-        <v>344.38061027994723</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>13.9</v>
       </c>
@@ -2807,14 +1959,8 @@
       <c r="C141" s="1">
         <v>3.8875663945027411E-3</v>
       </c>
-      <c r="D141">
-        <v>15</v>
-      </c>
-      <c r="E141">
-        <v>404.99442010745554</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>14</v>
       </c>
@@ -2824,14 +1970,8 @@
       <c r="C142" s="1">
         <v>3.326999457466567E-3</v>
       </c>
-      <c r="D142">
-        <v>15.1</v>
-      </c>
-      <c r="E142">
-        <v>457.42949030115648</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>14.1</v>
       </c>
@@ -2841,14 +1981,8 @@
       <c r="C143" s="1">
         <v>2.7695560759164301E-3</v>
       </c>
-      <c r="D143">
-        <v>15.2</v>
-      </c>
-      <c r="E143">
-        <v>472.71515339706167</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14.2</v>
       </c>
@@ -2858,14 +1992,8 @@
       <c r="C144" s="1">
         <v>2.2807086612115219E-3</v>
       </c>
-      <c r="D144">
-        <v>15.3</v>
-      </c>
-      <c r="E144">
-        <v>478.0462189802293</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>14.3</v>
       </c>
@@ -2875,14 +2003,8 @@
       <c r="C145" s="1">
         <v>2.0600143894343201E-3</v>
       </c>
-      <c r="D145">
-        <v>15.4</v>
-      </c>
-      <c r="E145">
-        <v>420.97460405665373</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14.4</v>
       </c>
@@ -2892,14 +2014,8 @@
       <c r="C146" s="1">
         <v>1.4896700123427629E-3</v>
       </c>
-      <c r="D146">
-        <v>15.5</v>
-      </c>
-      <c r="E146">
-        <v>451.39848727793594</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>14.5</v>
       </c>
@@ -2909,14 +2025,8 @@
       <c r="C147" s="1">
         <v>1.4243748689591251E-3</v>
       </c>
-      <c r="D147">
-        <v>15.6</v>
-      </c>
-      <c r="E147">
-        <v>568.58835242287512</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>14.6</v>
       </c>
@@ -2926,14 +2036,8 @@
       <c r="C148" s="1">
         <v>1.4432799196590559E-3</v>
       </c>
-      <c r="D148">
-        <v>15.7</v>
-      </c>
-      <c r="E148">
-        <v>735.35548089016072</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14.7</v>
       </c>
@@ -2943,14 +2047,8 @@
       <c r="C149" s="1">
         <v>1.474912475579622E-3</v>
       </c>
-      <c r="D149">
-        <v>15.8</v>
-      </c>
-      <c r="E149">
-        <v>802.57131405020368</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>14.8</v>
       </c>
@@ -2960,14 +2058,8 @@
       <c r="C150" s="1">
         <v>1.5038634255735281E-3</v>
       </c>
-      <c r="D150">
-        <v>15.9</v>
-      </c>
-      <c r="E150">
-        <v>813.61153472211299</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>14.9</v>
       </c>
@@ -2977,14 +2069,8 @@
       <c r="C151" s="1">
         <v>1.52558583795651E-3</v>
       </c>
-      <c r="D151">
-        <v>16</v>
-      </c>
-      <c r="E151">
-        <v>768.59140478971904</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>15</v>
       </c>
@@ -2994,14 +2080,8 @@
       <c r="C152" s="1">
         <v>1.548913303612592E-3</v>
       </c>
-      <c r="D152">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="E152">
-        <v>728.065458478854</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>15.1</v>
       </c>
@@ -3011,14 +2091,8 @@
       <c r="C153">
         <v>1.574588066627062E-3</v>
       </c>
-      <c r="D153">
-        <v>16.2</v>
-      </c>
-      <c r="E153">
-        <v>691.1063363353951</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>15.2</v>
       </c>
@@ -3028,14 +2102,8 @@
       <c r="C154">
         <v>1.924838942088928E-3</v>
       </c>
-      <c r="D154">
-        <v>16.3</v>
-      </c>
-      <c r="E154">
-        <v>673.31453497957079</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>15.3</v>
       </c>
@@ -3045,14 +2113,8 @@
       <c r="C155">
         <v>2.3910459275178998E-3</v>
       </c>
-      <c r="D155">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E155">
-        <v>619.87879151264508</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>15.4</v>
       </c>
@@ -3062,14 +2124,8 @@
       <c r="C156">
         <v>2.4811530937443459E-3</v>
       </c>
-      <c r="D156">
-        <v>16.5</v>
-      </c>
-      <c r="E156">
-        <v>620.45242927220988</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>15.5</v>
       </c>
@@ -3079,14 +2135,8 @@
       <c r="C157">
         <v>2.5299279620859369E-3</v>
       </c>
-      <c r="D157">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="E157">
-        <v>623.3076356223587</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>15.6</v>
       </c>
@@ -3096,14 +2146,8 @@
       <c r="C158">
         <v>2.561642206167572E-3</v>
       </c>
-      <c r="D158">
-        <v>16.7</v>
-      </c>
-      <c r="E158">
-        <v>521.77374480986816</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>15.7</v>
       </c>
@@ -3113,14 +2157,8 @@
       <c r="C159">
         <v>2.5845915192981412E-3</v>
       </c>
-      <c r="D159">
-        <v>16.8</v>
-      </c>
-      <c r="E159">
-        <v>362.18660862514645</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>15.8</v>
       </c>
@@ -3130,14 +2168,8 @@
       <c r="C160">
         <v>2.6227906714389971E-3</v>
       </c>
-      <c r="D160">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="E160">
-        <v>315.01706355249416</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>15.9</v>
       </c>
@@ -3147,14 +2179,8 @@
       <c r="C161">
         <v>2.66767768715614E-3</v>
       </c>
-      <c r="D161">
-        <v>17</v>
-      </c>
-      <c r="E161">
-        <v>287.88046642190716</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>16</v>
       </c>
@@ -3164,14 +2190,8 @@
       <c r="C162">
         <v>2.7153449115164211E-3</v>
       </c>
-      <c r="D162">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="E162">
-        <v>260.21673340417112</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>16.100000000000001</v>
       </c>
@@ -3181,14 +2201,8 @@
       <c r="C163">
         <v>2.7637380828601159E-3</v>
       </c>
-      <c r="D163">
-        <v>17.2</v>
-      </c>
-      <c r="E163">
-        <v>232.02345938478058</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>16.2</v>
       </c>
@@ -3198,14 +2212,8 @@
       <c r="C164">
         <v>2.8123709105540972E-3</v>
       </c>
-      <c r="D164">
-        <v>17.3</v>
-      </c>
-      <c r="E164">
-        <v>204.83389729390856</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>16.3</v>
       </c>
@@ -3215,14 +2223,8 @@
       <c r="C165">
         <v>3.142999235111868E-3</v>
       </c>
-      <c r="D165">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="E165">
-        <v>177.19690508492536</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>16.399999999999999</v>
       </c>
@@ -3232,14 +2234,8 @@
       <c r="C166">
         <v>3.7928129882219769E-3</v>
       </c>
-      <c r="D166">
-        <v>17.5</v>
-      </c>
-      <c r="E166">
-        <v>192.74853369562115</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>16.5</v>
       </c>
@@ -3249,14 +2245,8 @@
       <c r="C167">
         <v>4.012385505334083E-3</v>
       </c>
-      <c r="D167">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="E167">
-        <v>190.50048117287551</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>16.600000000000001</v>
       </c>
@@ -3266,14 +2256,8 @@
       <c r="C168">
         <v>4.8824963824971408E-3</v>
       </c>
-      <c r="D168">
-        <v>17.7</v>
-      </c>
-      <c r="E168">
-        <v>171.37495871874918</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>16.7</v>
       </c>
@@ -3283,14 +2267,8 @@
       <c r="C169">
         <v>5.6415549622588976E-3</v>
       </c>
-      <c r="D169">
-        <v>17.8</v>
-      </c>
-      <c r="E169">
-        <v>199.08600001455977</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>16.8</v>
       </c>
@@ -3300,14 +2278,8 @@
       <c r="C170">
         <v>6.1167646194271973E-3</v>
       </c>
-      <c r="D170">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E170">
-        <v>220.03099288148186</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>16.899999999999999</v>
       </c>
@@ -3317,14 +2289,8 @@
       <c r="C171">
         <v>7.0331463322255436E-3</v>
       </c>
-      <c r="D171">
-        <v>18</v>
-      </c>
-      <c r="E171">
-        <v>199.98470479409124</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>17</v>
       </c>
@@ -3334,14 +2300,8 @@
       <c r="C172">
         <v>7.3613569550877028E-3</v>
       </c>
-      <c r="D172">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="E172">
-        <v>214.95084471097655</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>17.100000000000001</v>
       </c>
@@ -3351,14 +2311,8 @@
       <c r="C173">
         <v>8.1196024417344477E-3</v>
       </c>
-      <c r="D173">
-        <v>18.2</v>
-      </c>
-      <c r="E173">
-        <v>232.93392922304267</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>17.2</v>
       </c>
@@ -3368,14 +2322,8 @@
       <c r="C174">
         <v>8.5884708903420023E-3</v>
       </c>
-      <c r="D174">
-        <v>18.3</v>
-      </c>
-      <c r="E174">
-        <v>253.8127301657062</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>17.3</v>
       </c>
@@ -3385,14 +2333,8 @@
       <c r="C175">
         <v>8.7456431595458878E-3</v>
       </c>
-      <c r="D175">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E175">
-        <v>262.12272575928677</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>17.399999999999999</v>
       </c>
@@ -3402,14 +2344,8 @@
       <c r="C176">
         <v>8.8067703869293551E-3</v>
       </c>
-      <c r="D176">
-        <v>18.5</v>
-      </c>
-      <c r="E176">
-        <v>287.4756720040665</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>17.5</v>
       </c>
@@ -3419,14 +2355,8 @@
       <c r="C177">
         <v>7.9976176168059382E-3</v>
       </c>
-      <c r="D177">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E177">
-        <v>307.01203452689282</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>17.600000000000001</v>
       </c>
@@ -3436,14 +2366,8 @@
       <c r="C178">
         <v>7.927343883235731E-3</v>
       </c>
-      <c r="D178">
-        <v>18.7</v>
-      </c>
-      <c r="E178">
-        <v>298.83212896173842</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>17.7</v>
       </c>
@@ -3453,14 +2377,8 @@
       <c r="C179">
         <v>7.167557285479402E-3</v>
       </c>
-      <c r="D179">
-        <v>18.8</v>
-      </c>
-      <c r="E179">
-        <v>307.22136738258399</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>17.8</v>
       </c>
@@ -3470,14 +2388,8 @@
       <c r="C180">
         <v>6.9538192195399678E-3</v>
       </c>
-      <c r="D180">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E180">
-        <v>347.70212720441526</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>17.899999999999999</v>
       </c>
@@ -3487,14 +2399,8 @@
       <c r="C181">
         <v>6.0720337020762393E-3</v>
       </c>
-      <c r="D181">
-        <v>19</v>
-      </c>
-      <c r="E181">
-        <v>394.33142090179354</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>18</v>
       </c>
@@ -3504,14 +2410,8 @@
       <c r="C182">
         <v>5.9338524344521738E-3</v>
       </c>
-      <c r="D182">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E182">
-        <v>467.53020529171386</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>18.100000000000001</v>
       </c>
@@ -3521,14 +2421,8 @@
       <c r="C183">
         <v>5.1743305978795284E-3</v>
       </c>
-      <c r="D183">
-        <v>19.2</v>
-      </c>
-      <c r="E183">
-        <v>591.35115324046922</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>18.2</v>
       </c>
@@ -3538,14 +2432,8 @@
       <c r="C184">
         <v>4.9003552290652688E-3</v>
       </c>
-      <c r="D184">
-        <v>19.3</v>
-      </c>
-      <c r="E184">
-        <v>708.23613808881214</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>18.3</v>
       </c>
@@ -3555,14 +2443,8 @@
       <c r="C185">
         <v>4.8959749330294618E-3</v>
       </c>
-      <c r="D185">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="E185">
-        <v>670.97745324702828</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>18.399999999999999</v>
       </c>
@@ -3572,14 +2454,8 @@
       <c r="C186">
         <v>4.9452878343289979E-3</v>
       </c>
-      <c r="D186">
-        <v>19.5</v>
-      </c>
-      <c r="E186">
-        <v>645.41879614575817</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>18.5</v>
       </c>
@@ -3589,14 +2465,8 @@
       <c r="C187">
         <v>4.7933938722818422E-3</v>
       </c>
-      <c r="D187">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="E187">
-        <v>614.20514955826854</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>18.600000000000001</v>
       </c>
@@ -3606,14 +2476,8 @@
       <c r="C188">
         <v>3.9922641376918802E-3</v>
       </c>
-      <c r="D188">
-        <v>19.7</v>
-      </c>
-      <c r="E188">
-        <v>579.11715842474632</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>18.7</v>
       </c>
@@ -3623,14 +2487,8 @@
       <c r="C189">
         <v>3.8929285499785179E-3</v>
       </c>
-      <c r="D189">
-        <v>19.8</v>
-      </c>
-      <c r="E189">
-        <v>566.03562535818151</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>18.8</v>
       </c>
@@ -3640,14 +2498,8 @@
       <c r="C190">
         <v>3.9174737013119064E-3</v>
       </c>
-      <c r="D190">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E190">
-        <v>542.28436722076049</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>18.899999999999999</v>
       </c>
@@ -3657,14 +2509,8 @@
       <c r="C191">
         <v>3.9621957743285197E-3</v>
       </c>
-      <c r="D191">
-        <v>20</v>
-      </c>
-      <c r="E191">
-        <v>458.43659177066985</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>19</v>
       </c>
